--- a/biology/Zoologie/Chironomus_serresi/Chironomus_serresi.xlsx
+++ b/biology/Zoologie/Chironomus_serresi/Chironomus_serresi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chironomus serresi est une espèce fossile de diptère nématocère de la famille des Chironomidae, de la sous-famille des Chironominae, de la tribu des Chironomini et du genre Chironomus. 
 </t>
@@ -511,13 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Chironomus serresi est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981)[1]. 
-Fossiles
-L'holotype M 36, de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma.) faisait partie de la collection de l'Institut géologique de Marseille [note 1] et vient du gypse d'Aix-en-Provence. Cet holotype est complété par deux autres échantillons A 110 (mâle) et A 102 (femelle).
-Étymologie
-L'épithète spécifique « serresi » est un hommage à Marcel de Serres.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Chironomus serresi est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981). 
 </t>
         </is>
       </c>
@@ -543,18 +553,169 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype M 36, de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma.) faisait partie de la collection de l'Institut géologique de Marseille [note 1] et vient du gypse d'Aix-en-Provence. Cet holotype est complété par deux autres échantillons A 110 (mâle) et A 102 (femelle).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chironomus_serresi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chironomus_serresi</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique « serresi » est un hommage à Marcel de Serres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chironomus_serresi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chironomus_serresi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937[2],[note 2] : 
-« Insecte de petite taille, corps brun. Tête petite, inclinée sous le thorax, yeux composés de forme ovale, antennes plumeuses, aussi longues que le thorax. Thorax ovale, bombé. Abdomen allongé, 8 segments, organes génitaux non discernables. Pattes grêles, allongées. Ailes manquantes[2]. »
-Dimensions
-La longueur totale du corps est de 4,5 mm[2]
-Affinités
-« En l'absence d'ailes, on ne peut déterminer l'échantillon avec précision[2]. »
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald en 1937,[note 2] : 
+« Insecte de petite taille, corps brun. Tête petite, inclinée sous le thorax, yeux composés de forme ovale, antennes plumeuses, aussi longues que le thorax. Thorax ovale, bombé. Abdomen allongé, 8 segments, organes génitaux non discernables. Pattes grêles, allongées. Ailes manquantes. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chironomus_serresi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chironomus_serresi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale du corps est de 4,5 mm
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chironomus_serresi</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chironomus_serresi</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« En l'absence d'ailes, on ne peut déterminer l'échantillon avec précision. »
 </t>
         </is>
       </c>
